--- a/06-03-2023/data/output/xlsx/sample_0/7_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/7_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,181 +352,181 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,19 +921,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
+        <v>974</v>
+      </c>
+      <c r="D2">
+        <v>0.1475412349194724</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.02169421487603306</v>
+        <v>0.03182751540041068</v>
       </c>
       <c r="G2">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H2">
-        <v>-0.0003498733003196482</v>
+        <v>0.0007653911519136837</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -926,22 +947,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.04268602997989741</v>
+        <v>0.09093745782734522</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.02395209580838323</v>
+        <v>0.03423848878394333</v>
       </c>
       <c r="G3">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H3">
-        <v>0.001908007632030528</v>
+        <v>0.003176364535446338</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -952,19 +973,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.11624361219027</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G4">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H4">
-        <v>-0.02204408817635271</v>
+        <v>0.156437875751503</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -975,19 +999,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.1062734359321116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H5">
-        <v>-0.02204408817635271</v>
+        <v>0.168937875751503</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1000,17 +1027,20 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>105</v>
+      <c r="D6">
+        <v>0.1195462650866474</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G6">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H6">
-        <v>-0.02204408817635271</v>
+        <v>0.1911600979737252</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1023,17 +1053,20 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
+      <c r="D7">
+        <v>0.1026486334871979</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G7">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H7">
-        <v>-0.02204408817635271</v>
+        <v>0.1356045424181697</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1046,17 +1079,20 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>105</v>
+      <c r="D8">
+        <v>0.1246976619717931</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H8">
-        <v>-0.02204408817635271</v>
+        <v>0.168937875751503</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1067,19 +1103,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.2855453520622518</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H9">
-        <v>-0.02204408817635271</v>
+        <v>0.468937875751503</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1090,19 +1129,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.9381764227286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H10">
-        <v>-0.02204408817635271</v>
+        <v>0.968937875751503</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1113,19 +1155,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.09369008075893696</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="G11">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H11">
-        <v>-0.02204408817635271</v>
+        <v>0.01398292079654805</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1136,22 +1181,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.05139962861002557</v>
+        <v>0.1170770913112157</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F12">
-        <v>0.03278688524590164</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="G12">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H12">
-        <v>0.01074279706954893</v>
+        <v>0.02700239188053527</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1162,22 +1207,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.05800671561278305</v>
+        <v>0.1094208901339867</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F13">
-        <v>0.03728813559322034</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G13">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H13">
-        <v>0.01524404741686763</v>
+        <v>0.02339332129605746</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1188,22 +1233,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>0.0833890708610233</v>
+        <v>0.112513414731914</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F14">
-        <v>0.05142857142857143</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G14">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H14">
-        <v>0.02938448325221872</v>
+        <v>0.02156945469887142</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1214,22 +1259,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>0.0666496692333183</v>
+        <v>0.1329797094337267</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F15">
-        <v>0.03846153846153846</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G15">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H15">
-        <v>0.01641745028518576</v>
+        <v>0.03016236554742137</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1240,22 +1285,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0.05166156714209792</v>
+        <v>0.1661917684103315</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G16">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H16">
-        <v>0.003596937464672934</v>
+        <v>0.05717316986915007</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1266,19 +1311,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0.1614711078986621</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>0.01923076923076923</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G17">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H17">
-        <v>-0.002813318945583475</v>
+        <v>0.06196113156545649</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1291,17 +1339,20 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>105</v>
+      <c r="D18">
+        <v>0.2414711735370401</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G18">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H18">
-        <v>-0.02204408817635271</v>
+        <v>0.1227840295976569</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1312,19 +1363,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
+        <v>654</v>
+      </c>
+      <c r="D19">
+        <v>0.1495604191754057</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="G19">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H19">
-        <v>-0.02204408817635271</v>
+        <v>0.008693227433460193</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1335,22 +1389,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>0.02325181859003171</v>
+        <v>0.1659013593721552</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>0.02769230769230769</v>
+        <v>0.04743833017077799</v>
       </c>
       <c r="G20">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H20">
-        <v>0.005648219515954987</v>
+        <v>0.016376205922281</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1361,22 +1415,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>0.05163543231141021</v>
+        <v>0.07058362558751864</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F21">
-        <v>0.03448275862068965</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="G21">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H21">
-        <v>0.01243867044433695</v>
+        <v>0.07150197831560556</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1387,22 +1441,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.1495588718168589</v>
+        <v>0.1026201945305013</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F22">
-        <v>0.1388888888888889</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G22">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H22">
-        <v>0.1168448007125362</v>
+        <v>0.09937265836019865</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1413,22 +1467,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>0.1196269061882743</v>
+        <v>0.1510467443569605</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F23">
-        <v>0.07407407407407407</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G23">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H23">
-        <v>0.05202998589772136</v>
+        <v>0.1454084639867971</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1439,22 +1493,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>0.1007691529268118</v>
+        <v>0.2657765804946933</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F24">
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
       <c r="G24">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H24">
-        <v>0.04045591182364729</v>
+        <v>0.218937875751503</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1465,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0.1274592396744635</v>
+        <v>0.3070807560944372</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>0.08333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H25">
-        <v>0.06128924515698062</v>
+        <v>0.268937875751503</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1491,22 +1545,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.172283141168904</v>
+        <v>0.3070807560944372</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F26">
-        <v>0.1111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="G26">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H26">
-        <v>0.08906702293475841</v>
+        <v>0.268937875751503</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1520,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>0.1879633404241711</v>
+        <v>0.3876523416521358</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="G27">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H27">
-        <v>0.1029559118236473</v>
+        <v>0.343937875751503</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1543,19 +1597,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0.2083500015521015</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G28">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H28">
-        <v>-0.02204408817635271</v>
+        <v>0.168937875751503</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1566,19 +1623,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.2606383592805314</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G29">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H29">
-        <v>-0.02204408817635271</v>
+        <v>0.218937875751503</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1591,17 +1651,20 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>105</v>
+      <c r="D30">
+        <v>0.3215852913245044</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H30">
-        <v>-0.02204408817635271</v>
+        <v>0.3022712090848363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1612,19 +1675,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>0.07359012617409734</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="G31">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H31">
-        <v>-0.02204408817635271</v>
+        <v>0.02194992394427409</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1635,22 +1701,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0.06883942123567471</v>
+        <v>0.3215852913245044</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F32">
-        <v>0.04379562043795621</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H32">
-        <v>0.0217515322616035</v>
+        <v>0.3022712090848363</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1661,19 +1727,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H33">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1687,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H34">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1707,22 +1773,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.06624723978138941</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.04950495049504951</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H35">
-        <v>0.0274608623186968</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1733,22 +1796,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.06642710761697788</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.05797101449275362</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H36">
-        <v>0.03592692631640092</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1759,22 +1819,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
-      </c>
-      <c r="D37">
-        <v>0.07437561018990543</v>
-      </c>
-      <c r="E37" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.06748466257668712</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H37">
-        <v>0.04544057440033441</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1785,22 +1842,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
-      </c>
-      <c r="D38">
-        <v>0.0944790817477951</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.08928571428571429</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H38">
-        <v>0.06724162610936157</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1811,22 +1865,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>0.1053539771748199</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.101123595505618</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H39">
-        <v>0.07907950732926528</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1837,22 +1888,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>0.1281851042344438</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.1355932203389831</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H40">
-        <v>0.1135491321626304</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1863,22 +1911,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>0.1459621539902894</v>
-      </c>
-      <c r="E41" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H41">
-        <v>0.1112892451569806</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1889,22 +1934,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D42">
-        <v>0.07258398051257166</v>
+        <v>0.05710438002584263</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F42">
-        <v>0.02208835341365462</v>
+        <v>0.06418918918918919</v>
       </c>
       <c r="G42">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H42">
-        <v>4.426523730191242E-05</v>
+        <v>0.03312706494069219</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1915,22 +1960,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>0.07262004034804953</v>
+        <v>0.06500404014295726</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F43">
-        <v>0.02219979818365288</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G43">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H43">
-        <v>0.0001557100073001708</v>
+        <v>0.04800764319336347</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1941,22 +1986,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44">
-        <v>0.126293641963564</v>
+        <v>0.05767216271203122</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F44">
-        <v>0.08333333333333333</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G44">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H44">
-        <v>0.06128924515698062</v>
+        <v>0.05327522514909336</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1967,22 +2012,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>0.2796187976487778</v>
+        <v>0.05494110103470466</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F45">
-        <v>0.25</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="G45">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H45">
-        <v>0.2279559118236473</v>
+        <v>0.05836877006044609</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1993,22 +2038,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46">
-        <v>0.6553512644853413</v>
+        <v>0.05749969943485913</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="G46">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H46">
-        <v>0.4779559118236473</v>
+        <v>0.06172138090614218</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2019,22 +2064,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>0.06976791051505694</v>
+        <v>0.06395625988989653</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F47">
-        <v>0.03081664098613251</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="G47">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H47">
-        <v>0.008772552809779805</v>
+        <v>0.07704598385961112</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2045,22 +2090,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>0.05223769786497497</v>
+        <v>0.05489415200652345</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F48">
-        <v>0.03368421052631579</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G48">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H48">
-        <v>0.01164012234996308</v>
+        <v>0.05227120908483633</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2071,22 +2116,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49">
-        <v>0.05333627368721419</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
+        <v>996</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
       </c>
       <c r="F49">
-        <v>0.03908794788273615</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G49">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H49">
-        <v>0.01704385970638345</v>
+        <v>-0.0009416423207861506</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2097,22 +2139,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50">
-        <v>0.04821872986402938</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
+        <v>988</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
       </c>
       <c r="F50">
-        <v>0.04291845493562232</v>
+        <v>0.02935222672064777</v>
       </c>
       <c r="G50">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H50">
-        <v>0.02087436675926961</v>
+        <v>-0.001709897527849221</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2123,22 +2162,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>0.03428860088251673</v>
+        <v>0.05519459919433645</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F51">
-        <v>0.03896103896103896</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G51">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H51">
-        <v>0.01691695078468625</v>
+        <v>0.03560454241816967</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2149,22 +2188,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
-      </c>
-      <c r="D52">
-        <v>0.05292605178430411</v>
-      </c>
-      <c r="E52" t="s">
-        <v>138</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.0396039603960396</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H52">
-        <v>0.0175598722196869</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2175,22 +2211,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
-      </c>
-      <c r="D53">
-        <v>0.07575045071442646</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.04838709677419355</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H53">
-        <v>0.02634300859784084</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2201,22 +2234,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0.1259805181280489</v>
-      </c>
-      <c r="E54" t="s">
-        <v>140</v>
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H54">
-        <v>0.04462257849031396</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2227,22 +2257,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.07253654611877822</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.04629629629629629</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H55">
-        <v>0.02425220811994359</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2253,22 +2280,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>0.06933357764794412</v>
-      </c>
-      <c r="E56" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.04678362573099415</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H56">
-        <v>0.02473953755464144</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2279,22 +2303,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>0.1625037202279816</v>
-      </c>
-      <c r="E57" t="s">
-        <v>143</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H57">
-        <v>0.08906702293475841</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2305,22 +2326,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58">
-        <v>0.1869474772127424</v>
+        <v>0.1104166624521558</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F58">
-        <v>0.125</v>
+        <v>0.04088050314465409</v>
       </c>
       <c r="G58">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H58">
-        <v>0.1029559118236473</v>
+        <v>0.009818378896157092</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2331,22 +2352,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59">
-        <v>0.2209617920356833</v>
+        <v>0.09935506712309158</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F59">
-        <v>0.1666666666666667</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="G59">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H59">
-        <v>0.144622578490314</v>
+        <v>0.01420536546343716</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2357,19 +2378,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>0.09354641244383843</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="G60">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H60">
-        <v>-0.02204408817635271</v>
+        <v>0.01581287575150301</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2380,19 +2404,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>0.1132957561688616</v>
+      </c>
+      <c r="E61" t="s">
+        <v>154</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G61">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H61">
-        <v>-0.02204408817635271</v>
+        <v>0.01978533337862165</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2403,19 +2430,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>0.1207152714983986</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="G62">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H62">
-        <v>-0.02204408817635271</v>
+        <v>0.02881811527246109</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2429,19 +2459,19 @@
         <v>110</v>
       </c>
       <c r="D63">
-        <v>0.09531007291529479</v>
+        <v>0.1474564871356834</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F63">
-        <v>0.06363636363636363</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="G63">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H63">
-        <v>0.04159227546001092</v>
+        <v>0.04166514847877573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2452,22 +2482,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>0.08985102335904731</v>
+        <v>-0.008590906198327954</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F64">
-        <v>0.05376344086021505</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G64">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H64">
-        <v>0.03171935268386235</v>
+        <v>0.03047633728996455</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2478,22 +2508,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65">
-        <v>0.05446146553432244</v>
-      </c>
-      <c r="E65" t="s">
-        <v>148</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.02898550724637681</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G65">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H65">
-        <v>0.006941419070024105</v>
+        <v>-0.001650359542614641</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2504,22 +2531,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
-      </c>
-      <c r="D66">
-        <v>0.06858097787183721</v>
-      </c>
-      <c r="E66" t="s">
-        <v>149</v>
+        <v>225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0.03773584905660377</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G66">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H66">
-        <v>0.01569176088025107</v>
+        <v>-0.004395457581830325</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2530,22 +2554,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
-      </c>
-      <c r="D67">
-        <v>0.06311976411847396</v>
-      </c>
-      <c r="E67" t="s">
-        <v>150</v>
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0.03125</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G67">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H67">
-        <v>0.009205911823647293</v>
+        <v>-0.002972236608047556</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2556,22 +2577,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>0.07519816406364038</v>
-      </c>
-      <c r="E68" t="s">
-        <v>151</v>
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H68">
-        <v>0.01795591182364729</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2582,22 +2600,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
-      </c>
-      <c r="D69">
-        <v>0.08777358332487753</v>
-      </c>
-      <c r="E69" t="s">
-        <v>152</v>
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
       </c>
       <c r="F69">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H69">
-        <v>0.036779441235412</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2608,22 +2623,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>0.1357729643808509</v>
-      </c>
-      <c r="E70" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
       </c>
       <c r="F70">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H70">
-        <v>0.06886500273273821</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2634,19 +2646,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.02204408817635271</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2657,22 +2669,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.04996639075947015</v>
-      </c>
-      <c r="E72" t="s">
-        <v>154</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.02259887005649718</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H72">
-        <v>0.0005547818801444684</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2683,19 +2692,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H73">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2706,22 +2715,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>-0.06861615505017371</v>
-      </c>
-      <c r="E74" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.05785123966942149</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H74">
-        <v>0.03580715149306878</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2732,22 +2738,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75">
-        <v>-0.05385566876478649</v>
-      </c>
-      <c r="E75" t="s">
-        <v>156</v>
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.07407407407407407</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="G75">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H75">
-        <v>0.05202998589772136</v>
+        <v>-0.004975167726757865</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2758,22 +2761,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
-      </c>
-      <c r="D76">
-        <v>-0.06217601856869899</v>
-      </c>
-      <c r="E76" t="s">
-        <v>157</v>
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0.06451612903225806</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G76">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H76">
-        <v>0.04247204085590536</v>
+        <v>-0.01956787137493378</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2784,22 +2784,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>-0.06875747452070413</v>
-      </c>
-      <c r="E77" t="s">
-        <v>158</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.04761904761904762</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G77">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H77">
-        <v>0.02557495944269491</v>
+        <v>-0.01320498139135414</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2810,19 +2807,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H78">
-        <v>-0.02204408817635271</v>
+        <v>-0.008839902026274771</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2833,19 +2830,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H79">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2856,19 +2853,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H80">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2879,19 +2876,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H81">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2902,22 +2899,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.04332076537032981</v>
-      </c>
-      <c r="E82" t="s">
-        <v>159</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.03719912472647702</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H82">
-        <v>0.01515503655012432</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2928,22 +2922,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.01688578663965293</v>
+        <v>0.1448413780900873</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F83">
-        <v>0.03333333333333333</v>
+        <v>0.03109327983951856</v>
       </c>
       <c r="G83">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H83">
-        <v>0.01128924515698063</v>
+        <v>3.115559102156301E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2954,19 +2948,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="G84">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H84">
-        <v>-0.02204408817635271</v>
+        <v>-0.002653033339406086</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2977,19 +2971,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>0.07037405739930513</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="G85">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H85">
-        <v>-0.02204408817635271</v>
+        <v>0.06137485054141897</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3000,19 +2997,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>0.1265958590412989</v>
+      </c>
+      <c r="E86" t="s">
+        <v>160</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="G86">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H86">
-        <v>-0.02204408817635271</v>
+        <v>0.1092887529444855</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3023,19 +3023,22 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>105</v>
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>0.2378173968141234</v>
+      </c>
+      <c r="E87" t="s">
+        <v>161</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G87">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H87">
-        <v>-0.02204408817635271</v>
+        <v>0.1227840295976569</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3046,19 +3049,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>0.2569354704146828</v>
+      </c>
+      <c r="E88" t="s">
+        <v>162</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G88">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H88">
-        <v>-0.02204408817635271</v>
+        <v>0.1356045424181697</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3069,19 +3075,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>0.412811988687054</v>
+      </c>
+      <c r="E89" t="s">
+        <v>163</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G89">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H89">
-        <v>-0.02204408817635271</v>
+        <v>0.1507560575696848</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3092,19 +3101,22 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>0.483483612650302</v>
+      </c>
+      <c r="E90" t="s">
+        <v>164</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H90">
-        <v>-0.02204408817635271</v>
+        <v>0.218937875751503</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3115,19 +3127,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H91">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3138,22 +3150,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.03611726375008962</v>
-      </c>
-      <c r="E92" t="s">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.03191489361702127</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H92">
-        <v>0.009870805440668567</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3164,22 +3173,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.05779373754879208</v>
+        <v>0.0392602758193902</v>
       </c>
       <c r="E93" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F93">
-        <v>0.03636363636363636</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G93">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H93">
-        <v>0.01431954818728366</v>
+        <v>0.01614817618068756</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3190,22 +3199,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>0.1008547521562515</v>
+        <v>0.06026348106140326</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F94">
-        <v>0.06666666666666667</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G94">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H94">
-        <v>0.04462257849031396</v>
+        <v>0.02328570183845953</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3216,22 +3225,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>0.1310626217630957</v>
-      </c>
-      <c r="E95" t="s">
-        <v>164</v>
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
       </c>
       <c r="F95">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H95">
-        <v>0.07319400706174253</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3242,19 +3248,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H96">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3265,19 +3271,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H97">
-        <v>-0.02204408817635271</v>
+        <v>-0.03106212424849699</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3288,19 +3294,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>0.05306422930679898</v>
+      </c>
+      <c r="E98" t="s">
+        <v>167</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G98">
-        <v>0.02204408817635271</v>
+        <v>0.03106212424849699</v>
       </c>
       <c r="H98">
-        <v>-0.02204408817635271</v>
+        <v>0.02776140516326771</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3311,19 +3320,166 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <v>0.0005443153055958952</v>
+      </c>
+      <c r="E99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F99">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G99">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H99">
+        <v>0.03560454241816967</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.02204408817635271</v>
-      </c>
-      <c r="H99">
-        <v>-0.02204408817635271</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>0.02478861578159949</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="G100">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H100">
+        <v>0.01241613662106822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0.05191353020313247</v>
+      </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G101">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H101">
+        <v>0.02776140516326771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H102">
+        <v>-0.03106212424849699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H103">
+        <v>-0.03106212424849699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H104">
+        <v>-0.03106212424849699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.03106212424849699</v>
+      </c>
+      <c r="H105">
+        <v>-0.03106212424849699</v>
       </c>
     </row>
   </sheetData>
